--- a/medicine/Enfance/Fabrizio_Borrini/Fabrizio_Borrini.xlsx
+++ b/medicine/Enfance/Fabrizio_Borrini/Fabrizio_Borrini.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fabrizio Borrini (né le 14 avril 1960 à Liège) est un artiste peintre, un performer, un plasticien et un auteur de bande dessinée italien.
 </t>
@@ -513,19 +525,15 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et débuts
-Fabrizio Borrini naît le 14 avril 1960 à Liège, en Wallonie[1]. Il fait des études artistiques à l'Académie royale des beaux-arts de Liège[1]. Puis, il effectue ses premiers pas dans le monde de la bande dessinée dès le début des années 1980 avec l’album jeunesse Ticky. C’est grâce à la série de science-fiction décalée des Aventures de Suplex et Caltex qu’il se voit propulsé dans la publicité et du multimédia[1]. Il réalise alors des génériques pour la télévision, des décors pour le théâtre, des clips vidéos et des publicités.
-Ce n'est qu'au milieu des années 1990 qu'il fait son retour à la bande dessinée et rejoint la famille du Journal Spirou[2] à la demande du rédacteur en chef de l’époque Thierry Tinlot[1]. Il commence par animer la rubrique satirique Test à claques[3] avec le scénariste Jean-Louis Janssens. Ensuite, les enquêtes délirantes de L'Inspecteur Zbu[4] avec Éric Omond. Il retrouve Janssens avec la série Karma[5], parue aux éditions Dupuis entre 2006 et 2008. En 2009, il rend hommage à Alain Bashung[6]. En 2014, il rejoint l'équipe éditoriale des éditions Kennes[7]. Chez cet éditeur, il illustre deux romans de la série pour enfants Nini Zombie écrits par Lisette Morival : Celle qui n'existait plus[8] et Les Figurines d'éternité en 2016.
-Il s'implique dans un groupe de percussions Gomma ainsi qu’en 2009 dans le projet Boy’s Band dessinées comme chanteur[1] qui réunit  entre autres Midam, Janry, Delporte ou Batem[9].
-Peinture
-Début 1990, Fabrizio Borrini s'ouvre à la peinture. Ses toiles et encres  s’exposent en Belgique (Liège, Bruxelles, Gand et Anvers) ou en Europe[1] (France, Portugal, Roumanie, Suisse[10]).
-Act painting
-Fabrizio Borrini réalise également de nombreuses performances act painting[11],[1] et multimédia lors d’événements privés ou à l’occasion des expositions universelles pour le pavillon belge. En 2012, la Ville de Liège commande une fresque à Borrini pour dynamiser la colonne des Croisiers[12],[13] qui soutient la passerelle des Chiroux, la bibliothèque communale. En 2018, toujours à Liège, il décore volontairement les échafaudages de la cathédrale Saint-Paul de Liège[14],[15].
-Collaborations
-Vranken-Pommery Monopole[1], le producteur de Champagne confie à Borrini l’habillage des bouteilles de la collection Pop-Art diffusées mondialement. Le restaurant du domaine est entièrement illustré par l’artiste. On retrouve ses créations autant sur les murs que les accessoires[16]. Le Porto Rozès quant à lui voit ses étiquettes illustrées par 35 tableaux commandés à Borrini. Pour l’édition 2014 dans le cadre du Montreux Jazz Festival, Fabrizio Borrini décore un saxophone de 3 mètres de haut[17]. Ce témoin de l’amitié belgo-suisse, offert par WBI (Wallonie-Bruxelles International), est toujours visible sur la promenade du quai.
-Durant plusieurs années, la Foire du livre de Bruxelles confie à Fabrizio Borrini, la responsabilité du pôle bande dessinée de ce festival[18]. Dans le cadre de cette mission, il crée et coordonne l’imaginarium[19] puis le Palais des Imaginaires[20].
-Borrini Factory
-En 2023, Fabrizio Borrini installe son atelier dans une  demeure classée au patrimoine liégeois.
+          <t>Jeunesse et débuts</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabrizio Borrini naît le 14 avril 1960 à Liège, en Wallonie. Il fait des études artistiques à l'Académie royale des beaux-arts de Liège. Puis, il effectue ses premiers pas dans le monde de la bande dessinée dès le début des années 1980 avec l’album jeunesse Ticky. C’est grâce à la série de science-fiction décalée des Aventures de Suplex et Caltex qu’il se voit propulsé dans la publicité et du multimédia. Il réalise alors des génériques pour la télévision, des décors pour le théâtre, des clips vidéos et des publicités.
+Ce n'est qu'au milieu des années 1990 qu'il fait son retour à la bande dessinée et rejoint la famille du Journal Spirou à la demande du rédacteur en chef de l’époque Thierry Tinlot. Il commence par animer la rubrique satirique Test à claques avec le scénariste Jean-Louis Janssens. Ensuite, les enquêtes délirantes de L'Inspecteur Zbu avec Éric Omond. Il retrouve Janssens avec la série Karma, parue aux éditions Dupuis entre 2006 et 2008. En 2009, il rend hommage à Alain Bashung. En 2014, il rejoint l'équipe éditoriale des éditions Kennes. Chez cet éditeur, il illustre deux romans de la série pour enfants Nini Zombie écrits par Lisette Morival : Celle qui n'existait plus et Les Figurines d'éternité en 2016.
+Il s'implique dans un groupe de percussions Gomma ainsi qu’en 2009 dans le projet Boy’s Band dessinées comme chanteur qui réunit  entre autres Midam, Janry, Delporte ou Batem.
 </t>
         </is>
       </c>
@@ -551,35 +559,444 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Peinture</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Début 1990, Fabrizio Borrini s'ouvre à la peinture. Ses toiles et encres  s’exposent en Belgique (Liège, Bruxelles, Gand et Anvers) ou en Europe (France, Portugal, Roumanie, Suisse).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Act painting</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Fabrizio Borrini réalise également de nombreuses performances act painting, et multimédia lors d’événements privés ou à l’occasion des expositions universelles pour le pavillon belge. En 2012, la Ville de Liège commande une fresque à Borrini pour dynamiser la colonne des Croisiers, qui soutient la passerelle des Chiroux, la bibliothèque communale. En 2018, toujours à Liège, il décore volontairement les échafaudages de la cathédrale Saint-Paul de Liège,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Collaborations</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vranken-Pommery Monopole, le producteur de Champagne confie à Borrini l’habillage des bouteilles de la collection Pop-Art diffusées mondialement. Le restaurant du domaine est entièrement illustré par l’artiste. On retrouve ses créations autant sur les murs que les accessoires. Le Porto Rozès quant à lui voit ses étiquettes illustrées par 35 tableaux commandés à Borrini. Pour l’édition 2014 dans le cadre du Montreux Jazz Festival, Fabrizio Borrini décore un saxophone de 3 mètres de haut. Ce témoin de l’amitié belgo-suisse, offert par WBI (Wallonie-Bruxelles International), est toujours visible sur la promenade du quai.
+Durant plusieurs années, la Foire du livre de Bruxelles confie à Fabrizio Borrini, la responsabilité du pôle bande dessinée de ce festival. Dans le cadre de cette mission, il crée et coordonne l’imaginarium puis le Palais des Imaginaires.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Borrini Factory</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2023, Fabrizio Borrini installe son atelier dans une  demeure classée au patrimoine liégeois.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Albums de bande dessinée
-Ticky, Dupuis coll. « Mini-récit », Marcinelle, décembre 1981Scénario et dessin : Fabrizio Borrini - Couleurs : noir et blanc,Supplément au Spirou no 2277 du 3 décembre 1981.
-Les Aventures de Suplex et Caltex
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Ticky, Dupuis coll. « Mini-récit », Marcinelle, décembre 1981Scénario et dessin : Fabrizio Borrini - Couleurs : noir et blanc,Supplément au Spirou no 2277 du 3 décembre 1981.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Les Aventures de Suplex et Caltex</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 1 Terreur à Hollywood, Magic Strip coll. « Atomium 58 », Bruxelles, janvier 1986Scénario et dessin : Fabrizio Borrini - Couleurs : bichromie -  (ISBN 2803501031)
-2 L'Homme statue, Magic Strip coll. « Atomium 58 », Bruxelles, janvier 1986Scénario et dessin : Fabrizio Borrini - Couleurs : noir et blanc -  (ISBN 2803501260)
-Les Aventures de Lucky Color
-Le Client est roi, Incognito Brussels, Bruxelles, janvier 1993Scénario : Stéphan Colman - Dessin et couleurs : Fabrizio Borrini,Album publicitaire.
-Karma
-1 Outrelieu[5], Dupuis coll. « Jeunesse », Marcinelle, mars 2006Scénario : Jean-Louis Janssens - Dessin : Fabrizio Borrini - Couleurs : Johan Pilet -  (ISBN 2800137738)
-2 Les Rivières du temps[21], Dupuis coll. « Jeunesse », Marcinelle, janvier 2007Scénario : Jean-Louis Janssens - Dessin : Fabrizio Borrini - Couleurs : Johan Pilet -  (ISBN 9782800139104)
-3 La Fleur du bouffange, Dupuis coll. « Jeunesse », Marcinelle, avril 2008Scénario : Jean-Louis Janssens - Dessin : Fabrizio Borrini - Couleurs : Johan Pilet -  (ISBN 9782800140285)
-Collectifs
-1001 Visions du sexe, Graph Zeppelin, 28 novembre 2014Scénario : Patrice Bauduinet - Dessin : collectif dont Fabrizio Borrini - Couleurs : n&amp;b -  (ISBN 979-10-94169-01-8)
-Publications en revues et journaux
-Test à claques[3] Spirou, Scénario: Jean-Louis Janssens, Illustration : Fabrizio Borrini, 1995, Dupuis
-Inspecteur Zbu[4] Spirou, Scénario : Éric Omond, Illustration : Fabrizio Borrini, de 1999 à 2002, Dupuis
-Illustrations
-Nini Zombie
-Celle qui n'existait plus[8], Lisette Morival, Kennes, Gerpinnes, 4 mai 2016  (ISBN 9782875802750).
-Les Figurines d'éternité, Lisette Morival, Kennes, Gerpinnes, 30 novembre 2016  (ISBN 9782875803375).
-Expositions
-Fabrizio Borrini : atelier à Saint-Nicolas[11], du 9 au 10 mai 2009 ;
-Fabrizio Borrini : Galerie du Château Mottin à Hannut[22], du 8 au 30 novembre 2019 ;
-Fabrizio Borrini : Kalerie[23], Marche-en-Famenne, du 3 au 26 février 2023.</t>
+2 L'Homme statue, Magic Strip coll. « Atomium 58 », Bruxelles, janvier 1986Scénario et dessin : Fabrizio Borrini - Couleurs : noir et blanc -  (ISBN 2803501260)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Les Aventures de Lucky Color</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+Le Client est roi, Incognito Brussels, Bruxelles, janvier 1993Scénario : Stéphan Colman - Dessin et couleurs : Fabrizio Borrini,Album publicitaire.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Albums de bande dessinée</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Karma</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1 Outrelieu, Dupuis coll. « Jeunesse », Marcinelle, mars 2006Scénario : Jean-Louis Janssens - Dessin : Fabrizio Borrini - Couleurs : Johan Pilet -  (ISBN 2800137738)
+2 Les Rivières du temps, Dupuis coll. « Jeunesse », Marcinelle, janvier 2007Scénario : Jean-Louis Janssens - Dessin : Fabrizio Borrini - Couleurs : Johan Pilet -  (ISBN 9782800139104)
+3 La Fleur du bouffange, Dupuis coll. « Jeunesse », Marcinelle, avril 2008Scénario : Jean-Louis Janssens - Dessin : Fabrizio Borrini - Couleurs : Johan Pilet -  (ISBN 9782800140285)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Collectifs</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
+1001 Visions du sexe, Graph Zeppelin, 28 novembre 2014Scénario : Patrice Bauduinet - Dessin : collectif dont Fabrizio Borrini - Couleurs : n&amp;b -  (ISBN 979-10-94169-01-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Publications en revues et journaux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Test à claques Spirou, Scénario: Jean-Louis Janssens, Illustration : Fabrizio Borrini, 1995, Dupuis
+Inspecteur Zbu Spirou, Scénario : Éric Omond, Illustration : Fabrizio Borrini, de 1999 à 2002, Dupuis</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Illustrations</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Nini Zombie
+Celle qui n'existait plus, Lisette Morival, Kennes, Gerpinnes, 4 mai 2016  (ISBN 9782875802750).
+Les Figurines d'éternité, Lisette Morival, Kennes, Gerpinnes, 30 novembre 2016  (ISBN 9782875803375).</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Fabrizio_Borrini</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Expositions</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Fabrizio Borrini : atelier à Saint-Nicolas, du 9 au 10 mai 2009 ;
+Fabrizio Borrini : Galerie du Château Mottin à Hannut, du 8 au 30 novembre 2019 ;
+Fabrizio Borrini : Kalerie, Marche-en-Famenne, du 3 au 26 février 2023.</t>
         </is>
       </c>
     </row>
